--- a/scripts_optimisation/optimise_2018March/prevalences.xlsx
+++ b/scripts_optimisation/optimise_2018March/prevalences.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/scripts_optimisation/optimise_2018March/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:540008_{70E8C475-3B39-8C47-9D47-7FC789C6C0E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A65113DC-0D0D-7844-A1CB-C12D0C8206EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prevalences" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -997,11 +997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
